--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2191479.384939486</v>
+        <v>2241528.808782083</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17298407.14104213</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484453</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5543574.027714714</v>
+        <v>5617028.50529763</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>320.0331481255878</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -671,7 +671,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -725,7 +725,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>33.41881893834608</v>
       </c>
     </row>
     <row r="3">
@@ -801,7 +801,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
-        <v>153.3187614035089</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
         <v>125.2209214285714</v>
@@ -817,19 +817,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>21.39555907027768</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>146.6325435271071</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>310.6883293919657</v>
+        <v>58.06474029634484</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>34.06158462964717</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>64.58216279976261</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>7.79053383617555</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>185.0234767850729</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1291,13 +1291,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>116.0434079398616</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.383853062969</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>144.3865296939038</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>16.05512456153178</v>
       </c>
       <c r="U13" t="n">
-        <v>27.07950026194681</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>144.3865296939032</v>
+        <v>414.9510387864827</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>109.1426757626853</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>93.33789293904182</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>280.0398454857761</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>82.62483121292166</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>137.8834167598895</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2327,7 +2327,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.588755294878</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2485,16 +2485,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>143.8427601615726</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>50.38971918733571</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>104.6990987647609</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800226</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>35.20092700998509</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>33.42073582650436</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.2363335358519</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864829</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>26.24351759540724</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>293.3710601222846</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.4234729224759</v>
+        <v>126.8355823247564</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913611</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>22.52645229230939</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>152.199003244042</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452992</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.2363335358519</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>112.0152145377534</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602943</v>
+        <v>140.2850596529191</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.6402219259112</v>
+        <v>554.8743158913576</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>520.7722471151849</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>488.9028663300335</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>459.1685255287327</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4343,37 +4343,37 @@
         <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1030.032328522557</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>610.8898651018675</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.939792410819</v>
+        <v>577.1334823358613</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>884.4397056785397</v>
+        <v>55.55534443017166</v>
       </c>
       <c r="C4" t="n">
-        <v>711.8779941617646</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>546.0000013632873</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4486,22 +4486,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>269.215608100497</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="W4" t="n">
-        <v>1549.069749750006</v>
+        <v>720.185388501638</v>
       </c>
       <c r="X4" t="n">
-        <v>1303.677995083419</v>
+        <v>474.7936338350505</v>
       </c>
       <c r="Y4" t="n">
-        <v>1076.258324397527</v>
+        <v>247.3739631491588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>547.9560900011804</v>
+        <v>1668.990785889678</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1634.888717113505</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1198.97893228795</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>765.2041874462451</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>741.3771618958569</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233711</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762204</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2159.002379407682</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1754.146924818715</v>
       </c>
       <c r="X5" t="n">
-        <v>1382.541784186435</v>
+        <v>1695.495671994124</v>
       </c>
       <c r="Y5" t="n">
-        <v>974.2556604860882</v>
+        <v>1691.249952334182</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993472</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>187.8381257054811</v>
+        <v>593.0357356940399</v>
       </c>
       <c r="C7" t="n">
-        <v>187.8381257054811</v>
+        <v>420.4740241772648</v>
       </c>
       <c r="D7" t="n">
-        <v>187.8381257054811</v>
+        <v>254.5960313787875</v>
       </c>
       <c r="E7" t="n">
-        <v>187.8381257054811</v>
+        <v>84.83802762952476</v>
       </c>
       <c r="F7" t="n">
-        <v>187.8381257054811</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="G7" t="n">
-        <v>187.8381257054811</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477224</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2095.080693055679</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1816.647692308784</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1529.692184179215</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1257.665779765506</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1012.274025098919</v>
       </c>
       <c r="Y7" t="n">
-        <v>187.8381257054811</v>
+        <v>784.8543544130271</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1646.892207949976</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C8" t="n">
-        <v>1612.790139173803</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D8" t="n">
-        <v>1580.920758388652</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E8" t="n">
-        <v>1152.33908412592</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>724.4716545351282</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>323.0738231583921</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1689.31420398327</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1688.499153434708</v>
+        <v>2002.909724873567</v>
       </c>
       <c r="X8" t="n">
-        <v>1673.397094054422</v>
+        <v>1816.017324080564</v>
       </c>
       <c r="Y8" t="n">
-        <v>1669.15137439448</v>
+        <v>1811.771604420622</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.897252701281</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.754779884704</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.844995059148</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.070250217444</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2028206266514</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8049892499153</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>96.67483469313149</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9295221460494</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.279814104227</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2478.753407294277</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2478.753407294277</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3458.933073864584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4287.24294869798</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4833.741734656574</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4833.741734656574</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4750.089860840411</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4530.02263371345</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4270.800331030467</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3908.183380964293</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3503.327926375327</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.482946886535</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.196823186188</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.8465796844242</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.3901185210665</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.2998296676198</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.1794149945735</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.7955766107351</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.410486876919</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7385078535891</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.2968328198014</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>447.2968328198014</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.91459617194</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6362599849666</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.1504807641874</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1035.830820995388</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C13" t="n">
-        <v>863.2691094786124</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D13" t="n">
-        <v>697.3911166801352</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>527.6331129308724</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>350.9260588926285</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>185.3347839184561</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3347839184561</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.2545198578214</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.012974428957</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.222856196918</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.965526535475</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.916623301303</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.6752545993</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.795808177755</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U13" t="n">
-        <v>2259.442777610132</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V13" t="n">
-        <v>1972.487269480562</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W13" t="n">
-        <v>1700.460865066854</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.069110400266</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y13" t="n">
-        <v>1227.649439714375</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.897252701281</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.754779884704</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.844995059148</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.070250217444</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2028206266514</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8049892499153</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>96.67483469313149</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9295221460494</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.279814104227</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2478.753407294277</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3458.933073864584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4287.24294869798</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4833.741734656574</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4833.741734656574</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4750.089860840411</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4530.02263371345</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4270.800331030467</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3908.183380964293</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3503.327926375326</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.482946886535</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.196823186188</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.8465796844242</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.3901185210665</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.2998296676198</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.1794149945735</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.7955766107351</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.410486876919</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7385078535891</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.2968328198014</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.91459617194</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6362599849666</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.1504807641874</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.7508508161159</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>612.1891392993405</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>501.9440122663254</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>501.9440122663254</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>325.2369582280816</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2369582280816</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3347839184561</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.2545198578214</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.012974428957</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.222856196918</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.965526535475</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.916623301303</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.675254599299</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.795808177755</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.36280743086</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.407299301291</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1449.380894887582</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X16" t="n">
-        <v>1203.989140220995</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y16" t="n">
-        <v>976.5694695351028</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.488819671328</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1936.346346854751</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1500.436562029196</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.568031235483</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.7006016446902</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>388.3027702679541</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H17" t="n">
-        <v>99.17261571117038</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>99.17261571117038</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>534.4273031640882</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.777595122266</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.837561375126</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2603.642458196222</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2603.642458196222</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3583.822124766529</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4412.131999599925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4958.630785558519</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4958.630785558519</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4874.978911742356</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4654.911684615395</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4395.689381932411</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4033.072431866238</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3628.216977277271</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3209.074513856582</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2800.788390156235</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>605.3443607024632</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.8878995391054</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.7976106856587</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.6771960126124</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>226.293357628774</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.9082678949579</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>99.17261571117038</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>125.236288871628</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.7946138378403</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>449.7946138378403</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>449.7946138378403</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>449.7946138378403</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>449.7946138378403</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>449.7946138378403</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1104.500660463564</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1645.23959909564</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1762.412377189979</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.956939638362</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.778295968964</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1392.441748968932</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1193.324231030932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1008.001476764126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>853.1340410030056</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.6482617822263</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1033.128078255699</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>860.566366738924</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>694.6883739404468</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>524.9303701911841</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>348.2233161529404</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>182.632041178768</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>99.17261571117038</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>99.17261571117038</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.7523008758602</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>460.5107554469958</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.7206372149568</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1338.20450439587</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1780.463307553514</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2200.132556779296</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.639450749637</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.83222561397</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2694.414404319341</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2535.173035617338</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2535.173035617338</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2256.740034870443</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1969.784526740874</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1697.758122327165</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1452.366367660578</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1224.946696974686</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5762,19 +5762,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5789,13 +5789,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>982.1554751127514</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878952</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755404</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008509</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.966900465231</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127514</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651782</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835206</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.84779000965</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167945</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707795</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236973</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
         <v>1371.865819681875</v>
@@ -5999,40 +5999,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423619</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993926</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.389162827322</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785917</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538973</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.39013972281</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595849</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912865</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846693</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257726</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837037</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.19961813669</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620723</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987145</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>406.8858352452678</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722215</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883831</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>143.996492454567</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707795</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312371</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974494</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
         <v>1107.588885023173</v>
@@ -6108,10 +6108,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626147</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418354</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883916</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>811.7546776883916</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>645.8766848899143</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>476.1186811406515</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>330.8229638057296</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057296</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961041</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707795</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
         <v>2203.220781338905</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C28" t="n">
         <v>920.0973401405612</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2668.021743923745</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2422.1422975022</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2143.709296755305</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1856.753788625736</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1584.727384212028</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1339.33562954544</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376323</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="29">
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6655,7 +6655,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
         <v>1617.386921419177</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6707,22 +6707,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
         <v>5029.390139722817</v>
@@ -6743,7 +6743,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2683.363958244301</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.363958244301</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497406</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367837</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954129</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.557290287541</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2525.854933458241</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.636254561829</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1219.278299092984</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.1332516872508</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.674257000254</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2751.674257000254</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3731.853923570561</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>4560.163798403957</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5106.662584362552</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2951.737714570289</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1042.69099132938</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>870.5460691854651</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>705.0848657598478</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>671.3265467431773</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>495.0362820777935</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>329.8617964764812</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.3764115397157</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2701.059791783003</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2542.23521245386</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2542.23521245386</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2264.219001079825</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1977.680282323115</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1706.070667282267</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1461.095701988539</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1234.092820675507</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.854933458241</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561829</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092984</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.1332516872508</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2582.520192247198</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570289</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>977.053945531607</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>804.9090233876918</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>639.4478199620746</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>470.1066055856718</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>293.816340920288</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>128.6418553189756</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2722.060823704771</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2476.598166656087</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2198.581955282052</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1912.043236525342</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1640.433621484493</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1395.458656190766</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1168.455774877734</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2523.357152440201</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2085.631468996485</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1650.138473543789</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1216.780518074944</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>789.329877857012</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>388.3488358531358</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>99.63547066921214</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>99.63547066921214</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>534.8901581221301</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1369.240450080308</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2444.300416333167</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2444.300416333167</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2626.78520609831</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3606.964872668616</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4435.274747502012</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4981.773533460607</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>4981.773533460607</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4898.538449017304</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.888011263202</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.082497953079</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4057.882337259765</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3653.443672043659</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3357.109267879736</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2949.239933552249</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>605.8072156605049</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>499.3507544971472</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>404.2604656437005</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.1400509706542</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>226.7562125868158</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>141.3711228529997</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>99.63547066921214</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>125.6991438296697</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>450.2574687958821</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1645.702454053681</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1762.875232148021</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1699.419794596404</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1569.241150927006</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1392.904603926974</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1193.787085988973</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1008.464331722167</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>853.5968959610473</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.111116740268</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1175.776105671074</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C43" t="n">
-        <v>1003.631183527158</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D43" t="n">
-        <v>838.1699801015411</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>668.8287657251384</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>492.5385010597546</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>327.3640154584423</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>187.8786305216768</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>99.63547066921214</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.6236510982421</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7906009337178</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>880.4089779660188</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1340.301340411272</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1782.968638833257</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.046383323378</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.96177255806</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2719.563042686732</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2698.562010764964</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2698.562010764964</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2453.099353716279</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2175.083142342245</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1888.544423585535</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1616.934808544687</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1594.180816330233</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1367.177935017201</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2246.554654575834</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>1808.828971132117</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1373.335975679422</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>939.9780202105767</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>786.2416532974028</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>385.2606112935266</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>96.54724610960291</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.54724610960291</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.8019335625207</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.152225520698</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.212191773558</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.212191773558</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.212191773558</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.391858343864</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.70173317726</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.200519135856</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4827.362305480146</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4744.127221036842</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4524.476783282741</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4265.671269972618</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3903.471109279304</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3499.032444063198</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3080.306770015368</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2672.437435687882</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.7189911008957</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.262529937538</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.1722410840912</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.0518264110449</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.6679880272065</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.2828982933904</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.54724610960291</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.6109192700605</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.1692442362728</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.614229494072</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.787007588412</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.331570036795</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.152926367397</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1389.816379367365</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.698861429364</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.376107162558</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.5086714014381</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.0228921806588</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.9593363222343</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C46" t="n">
-        <v>772.8144141783191</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D46" t="n">
-        <v>607.3532107527019</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E46" t="n">
-        <v>438.0119963762991</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F46" t="n">
-        <v>261.7217317109153</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G46" t="n">
-        <v>96.54724610960291</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>96.54724610960291</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.54724610960291</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.5354265386328</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.7023763741086</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>877.3207534064097</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1337.213115851663</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1779.880414273648</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2199.958158763769</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2547.873547998451</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2716.474818127123</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2716.474818127123</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2557.65023879798</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2444.503557446714</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2166.487346072679</v>
+        <v>2150.679733297909</v>
       </c>
       <c r="V46" t="n">
-        <v>1879.948627315969</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W46" t="n">
-        <v>1608.339012275121</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X46" t="n">
-        <v>1363.364046981393</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y46" t="n">
-        <v>1136.361165668362</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
   </sheetData>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8134,10 +8134,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8146,13 +8146,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368464</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611177</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.94960388475874</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,10 +8696,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>37.7915423607983</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,19 +8772,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>37.7915423607983</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>161.4190876980774</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352374</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>307.9556158071196</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>137.0929241373656</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>184.3280704698414</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>31.47655186291922</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>270.5645090925786</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>227.3655273957975</v>
       </c>
       <c r="U13" t="n">
-        <v>248.5691704774789</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>270.5645090925792</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>55.07653710780727</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>175.9682474305296</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>149.3971519075116</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.412621479131395</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>55.87832135360756</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>32.95267764171783</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>31.0972233362887</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>107.2592358276476</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>120.4463752142719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>122.4480280049982</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>134.2270664061344</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
-        <v>243.0080304781979</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>111.8470134919906</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.2363335358519</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25691,7 +25691,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>121.1673571850664</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>44.00051207685087</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.2363335358519</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>219.9987633484809</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>270.977130571711</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>130.9928159404445</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>474121.6616929008</v>
+        <v>480462.8229045384</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>474121.6616929008</v>
+        <v>481604.5629275012</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>468160.6733896509</v>
+        <v>488145.5660558796</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>468160.6733896507</v>
+        <v>488145.5660558796</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>477096.913222456</v>
+        <v>488145.5660558796</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>488145.5660558795</v>
+        <v>488145.5660558796</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>488145.5660558795</v>
+        <v>488145.5660558796</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>488145.5660558795</v>
+        <v>488145.5660558796</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>488308.5449762646</v>
+        <v>488145.5660558796</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>488308.5449762646</v>
+        <v>488145.5660558796</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>479372.3051434595</v>
+        <v>488145.5660558795</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>468323.6523100358</v>
+        <v>488145.5660558795</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013677</v>
       </c>
       <c r="C2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013677</v>
       </c>
       <c r="D2" t="n">
         <v>482532.5879013676</v>
       </c>
       <c r="E2" t="n">
-        <v>454759.0240894596</v>
+        <v>474171.825723617</v>
       </c>
       <c r="F2" t="n">
-        <v>454759.0240894597</v>
+        <v>474171.825723617</v>
       </c>
       <c r="G2" t="n">
-        <v>463439.4535581978</v>
+        <v>474171.825723617</v>
       </c>
       <c r="H2" t="n">
         <v>474171.825723617</v>
@@ -26344,16 +26344,16 @@
         <v>474171.825723617</v>
       </c>
       <c r="M2" t="n">
-        <v>474384.309808666</v>
+        <v>474171.825723617</v>
       </c>
       <c r="N2" t="n">
-        <v>474384.3098086661</v>
+        <v>474171.825723617</v>
       </c>
       <c r="O2" t="n">
-        <v>465703.8803399279</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="P2" t="n">
-        <v>454971.5081745088</v>
+        <v>474171.825723617</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501627</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998267</v>
       </c>
       <c r="E3" t="n">
-        <v>234126.826365935</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8557.55387911489</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10415.38475254509</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449907</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877259</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622234</v>
       </c>
       <c r="M3" t="n">
-        <v>195343.3712995835</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>146735.164794785</v>
       </c>
       <c r="D4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>39439.36031793091</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="F4" t="n">
-        <v>39439.36031793091</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="G4" t="n">
-        <v>40192.17789250772</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="H4" t="n">
+        <v>41122.95192991268</v>
+      </c>
+      <c r="I4" t="n">
         <v>41122.95192991271</v>
-      </c>
-      <c r="I4" t="n">
-        <v>41122.95192991296</v>
       </c>
       <c r="J4" t="n">
         <v>41122.95192991271</v>
@@ -26445,19 +26445,19 @@
         <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.95192991268</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41501.47029804091</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="N4" t="n">
-        <v>41501.47029804092</v>
+        <v>41122.9519299127</v>
       </c>
       <c r="O4" t="n">
-        <v>40748.65272346409</v>
+        <v>41122.95192991267</v>
       </c>
       <c r="P4" t="n">
-        <v>39817.8786860591</v>
+        <v>41122.95192991267</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73472.87436677993</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>73472.87436677993</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>75371.18794048949</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579239</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>75757.64638373032</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73410.59571842731</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93351.96604862213</v>
+        <v>93351.9660486221</v>
       </c>
       <c r="C6" t="n">
-        <v>235543.266708332</v>
+        <v>197253.4414035639</v>
       </c>
       <c r="D6" t="n">
-        <v>235543.266708332</v>
+        <v>257408.7205507227</v>
       </c>
       <c r="E6" t="n">
-        <v>107719.9630388138</v>
+        <v>172952.3016274794</v>
       </c>
       <c r="F6" t="n">
-        <v>341846.7894047488</v>
+        <v>355307.4108485291</v>
       </c>
       <c r="G6" t="n">
-        <v>339318.5338460857</v>
+        <v>355307.4108485291</v>
       </c>
       <c r="H6" t="n">
-        <v>344915.2504353668</v>
+        <v>355307.4108485291</v>
       </c>
       <c r="I6" t="n">
-        <v>355330.6351879122</v>
+        <v>355307.4108485291</v>
       </c>
       <c r="J6" t="n">
-        <v>244316.1698429211</v>
+        <v>244292.945503539</v>
       </c>
       <c r="K6" t="n">
-        <v>355330.6351879118</v>
+        <v>302261.5562097565</v>
       </c>
       <c r="L6" t="n">
-        <v>355330.6351879118</v>
+        <v>345915.1091219069</v>
       </c>
       <c r="M6" t="n">
-        <v>159883.5082536017</v>
+        <v>203107.2399105415</v>
       </c>
       <c r="N6" t="n">
-        <v>355226.8795531853</v>
+        <v>355307.4108485291</v>
       </c>
       <c r="O6" t="n">
-        <v>349197.5812327334</v>
+        <v>355307.4108485293</v>
       </c>
       <c r="P6" t="n">
-        <v>341743.0337700223</v>
+        <v>355307.4108485292</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,25 +26790,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1239.65769638963</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384743</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1245.443383365152</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1206.840576370036</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791314185</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939308</v>
       </c>
       <c r="E4" t="n">
-        <v>784.1395761440392</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>31.22226272548621</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>38.60280699511539</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201064</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939308</v>
       </c>
       <c r="M4" t="n">
-        <v>782.5447188499318</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939308</v>
       </c>
       <c r="M4" t="n">
-        <v>784.1395761440392</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>31.22226272548621</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>38.60280699511539</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>113.7278999628231</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>370.784443524997</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>149.4405353313296</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>122.6735968424643</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>356.8862984901376</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>104.2627093945167</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>140.8783988682142</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>73.92098976676661</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.14113987318342</v>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>351.2002467293362</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>229.9275620014095</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>52.01701577190849</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791313976</v>
+        <v>-5.142369289011372e-13</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791313976</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791313976</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -34866,13 +34866,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368464</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611177</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,10 +35033,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.94960388475874</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,10 +35188,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>37.7915423607983</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35492,19 +35492,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>37.7915423607983</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35884,16 +35884,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>161.4190876980774</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36291,13 +36291,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352374</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36522,13 +36522,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37002,13 +37002,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>307.9556158071196</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>137.0929241373656</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>184.3280704698414</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>31.47655186291922</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821206</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
